--- a/biology/Zoologie/Gobioides_broussonnetii/Gobioides_broussonnetii.xlsx
+++ b/biology/Zoologie/Gobioides_broussonnetii/Gobioides_broussonnetii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gobioides broussonnetii, le Gobie violet est une espèce de poissons du genre Gobioides et de la famille des Gobiidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans l'océan Atlantique près des côtes de l'Amérique du Sud de la Géorgie au Brésil, les côtes de la Colombie et du Venezuela.
-Cette espèce démersale vit dans les fonds boueux des baies et des estuaires. Elle peut aussi vivre en eau douce[1].
+Cette espèce démersale vit dans les fonds boueux des baies et des estuaires. Elle peut aussi vivre en eau douce.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de gobies mesure 50 centimètres au maximum.
 </t>
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gobie violet se nourrit de petits invertébrés qu'il filtre avec son énorme gueule.
 </t>
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme beaucoup de gobies, l'espèce ici présente vit au niveau du sol et aime se cacher, se retirer dans des trous et cachettes en tous genres.
 </t>
@@ -636,7 +656,9 @@
           <t>Au Zoo</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Aquarium du palais de la Porte Dorée détient un petit groupe de Gobioides broussonnetii.(11/2014) Ils sont maintenus dans une grande cuve. Pas farouches et aisément observables lors de la promenade de l'Aquarium.
 </t>
